--- a/DB Data Dictionary.xlsx
+++ b/DB Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arora\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\UNCC Work\DBMS\Project\Database-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BF4E2E-39DC-4F24-ACA9-5B31A97F7D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC348EA4-B913-48F0-ABCD-6CC9B5AC2463}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9991804-7D01-4F52-B476-0469ABA9C372}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{D9991804-7D01-4F52-B476-0469ABA9C372}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="109">
   <si>
     <t>Entity/Table</t>
   </si>
@@ -77,9 +75,6 @@
     <t>cell</t>
   </si>
   <si>
-    <t>person_type</t>
-  </si>
-  <si>
     <t>person</t>
   </si>
   <si>
@@ -261,9 +256,6 @@
   </si>
   <si>
     <t>Cell/Contact number of a person</t>
-  </si>
-  <si>
-    <t>To check if person is a faculty, staff or student</t>
   </si>
   <si>
     <t>Total price of the order from the restaurant</t>
@@ -789,26 +781,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5C6CF6-BEE0-430B-AF5A-507F0E01F3F4}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,9 +829,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -849,357 +841,357 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2">
         <v>11</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
         <v>300</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2">
         <v>150</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2">
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2">
         <v>11</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F8" s="2">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2">
         <v>75</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2">
         <v>75</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2">
         <v>11</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F13" s="2">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2">
-        <v>75</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="H14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2">
         <v>11</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>31</v>
@@ -1207,20 +1199,20 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F18" s="2">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
         <v>32</v>
@@ -1228,66 +1220,66 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="2">
         <v>75</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
         <v>36</v>
@@ -1295,20 +1287,20 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2">
         <v>75</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>37</v>
@@ -1316,20 +1308,20 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2">
         <v>75</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
         <v>38</v>
@@ -1337,20 +1329,20 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2">
         <v>75</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
         <v>39</v>
@@ -1358,66 +1350,66 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="2">
         <v>75</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F26" s="2">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F27" s="2">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
         <v>43</v>
@@ -1425,20 +1417,20 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="2">
         <v>75</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
         <v>44</v>
@@ -1446,89 +1438,89 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" s="2">
         <v>75</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F30" s="2">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" s="2">
         <v>11</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F32" s="2">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
         <v>48</v>
@@ -1536,20 +1528,20 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="2">
-        <v>75</v>
-      </c>
-      <c r="G33" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="H33" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="2" t="s">
         <v>49</v>
@@ -1559,85 +1551,85 @@
       <c r="E34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="F34" s="2">
+        <v>4</v>
+      </c>
+      <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="B35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="3"/>
       <c r="B36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F36" s="2">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F37" s="2">
         <v>75</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
         <v>55</v>
@@ -1645,20 +1637,20 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F38" s="2">
         <v>75</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="2" t="s">
         <v>56</v>
@@ -1666,296 +1658,296 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F39" s="2">
         <v>75</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F40" s="2">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F41" s="2">
         <v>11</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42" s="2">
         <v>11</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F43" s="2">
         <v>11</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="6"/>
       <c r="B44" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="2">
-        <v>11</v>
-      </c>
-      <c r="G44" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="H44" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F45" s="2">
+        <v>11</v>
+      </c>
+      <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
       <c r="B46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F46" s="2">
         <v>11</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F47" s="2">
         <v>11</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F48" s="2">
         <v>11</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F49" s="2">
         <v>11</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F50" s="2">
         <v>11</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2">
         <v>11</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="2" t="s">
         <v>61</v>
@@ -1963,52 +1955,31 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2">
         <v>11</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="2">
-        <v>11</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A40:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2016,21 +1987,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D8023368925104DBFF5617859A549ED" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eaee028bd8fa742536260b44bac198dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="34ccff96-2200-447b-91bc-b6629a8d203e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d66f681cc0b4b0477c4c07647ee25ae" ns3:_="">
     <xsd:import namespace="34ccff96-2200-447b-91bc-b6629a8d203e"/>
@@ -2176,31 +2132,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5E1C368-6F29-4BC5-BA33-F2CB3A83EB78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="34ccff96-2200-447b-91bc-b6629a8d203e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A38FB12-AD21-4FB6-B1A6-EEC8289BED34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A4FC43C-348D-4A78-B1BD-57B071CCE762}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2216,4 +2163,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A38FB12-AD21-4FB6-B1A6-EEC8289BED34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5E1C368-6F29-4BC5-BA33-F2CB3A83EB78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="34ccff96-2200-447b-91bc-b6629a8d203e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DB Data Dictionary.xlsx
+++ b/DB Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\UNCC Work\DBMS\Project\Database-System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arora\Desktop\Deliverable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC348EA4-B913-48F0-ABCD-6CC9B5AC2463}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04671244-9ECE-4F17-B9D3-1254026B609B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{D9991804-7D01-4F52-B476-0469ABA9C372}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9991804-7D01-4F52-B476-0469ABA9C372}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="110">
   <si>
     <t>Entity/Table</t>
   </si>
@@ -358,6 +360,9 @@
   </si>
   <si>
     <t>Location of the restaurant</t>
+  </si>
+  <si>
+    <t>bigint</t>
   </si>
 </sst>
 </file>
@@ -781,26 +786,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5C6CF6-BEE0-430B-AF5A-507F0E01F3F4}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,8 +834,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -854,8 +859,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -875,8 +880,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -896,15 +901,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F5" s="2">
         <v>15</v>
@@ -919,7 +924,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -944,7 +949,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -967,7 +972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -988,7 +993,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>106</v>
@@ -1009,7 +1014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -1030,7 +1035,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1055,7 +1060,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -1078,7 +1083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>27</v>
@@ -1099,7 +1104,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
         <v>107</v>
@@ -1122,7 +1127,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1147,7 +1152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -1170,7 +1175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>30</v>
@@ -1191,7 +1196,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>31</v>
@@ -1212,7 +1217,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
         <v>32</v>
@@ -1233,7 +1238,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -1258,7 +1263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>35</v>
@@ -1279,7 +1284,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
         <v>36</v>
@@ -1300,7 +1305,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>37</v>
@@ -1321,7 +1326,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
         <v>38</v>
@@ -1342,7 +1347,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
         <v>39</v>
@@ -1363,7 +1368,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
@@ -1388,7 +1393,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
@@ -1409,7 +1414,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
         <v>43</v>
@@ -1430,7 +1435,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
         <v>44</v>
@@ -1451,7 +1456,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
@@ -1476,7 +1481,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
         <v>29</v>
@@ -1499,7 +1504,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
         <v>47</v>
@@ -1520,7 +1525,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
         <v>48</v>
@@ -1541,7 +1546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="2" t="s">
         <v>49</v>
@@ -1562,7 +1567,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
@@ -1587,7 +1592,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="2" t="s">
         <v>33</v>
@@ -1608,7 +1613,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
         <v>54</v>
@@ -1629,7 +1634,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
         <v>55</v>
@@ -1650,7 +1655,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="2" t="s">
         <v>56</v>
@@ -1671,7 +1676,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>62</v>
       </c>
@@ -1696,7 +1701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
         <v>46</v>
@@ -1719,7 +1724,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="2" t="s">
         <v>41</v>
@@ -1742,61 +1747,59 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="5"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
       <c r="B43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="2">
-        <v>11</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="6"/>
-      <c r="B44" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F44" s="2">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
       <c r="B45" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E45" s="2" t="s">
         <v>15</v>
       </c>
@@ -1808,13 +1811,13 @@
         <v>16</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
@@ -1831,13 +1834,13 @@
         <v>16</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
@@ -1854,13 +1857,13 @@
         <v>16</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
@@ -1877,13 +1880,13 @@
         <v>16</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
@@ -1900,36 +1903,34 @@
         <v>16</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2">
         <v>11</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1944,42 +1945,21 @@
         <v>24</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="3"/>
-      <c r="B52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="2">
-        <v>11</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="2" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A2:A5"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A40:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1987,6 +1967,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D8023368925104DBFF5617859A549ED" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eaee028bd8fa742536260b44bac198dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="34ccff96-2200-447b-91bc-b6629a8d203e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d66f681cc0b4b0477c4c07647ee25ae" ns3:_="">
     <xsd:import namespace="34ccff96-2200-447b-91bc-b6629a8d203e"/>
@@ -2132,22 +2127,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5E1C368-6F29-4BC5-BA33-F2CB3A83EB78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="34ccff96-2200-447b-91bc-b6629a8d203e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A38FB12-AD21-4FB6-B1A6-EEC8289BED34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A4FC43C-348D-4A78-B1BD-57B071CCE762}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2163,28 +2167,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A38FB12-AD21-4FB6-B1A6-EEC8289BED34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5E1C368-6F29-4BC5-BA33-F2CB3A83EB78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="34ccff96-2200-447b-91bc-b6629a8d203e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>